--- a/stats.xlsx
+++ b/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -25,13 +25,151 @@
     <t>record</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>hometown</t>
+  </si>
+  <si>
+    <t>trains_at</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>octagon_debut</t>
+  </si>
+  <si>
+    <t>reach</t>
+  </si>
+  <si>
+    <t>leg_reach</t>
+  </si>
+  <si>
+    <t>significant_strikes_landed</t>
+  </si>
+  <si>
+    <t>significant_strikes_attempted</t>
+  </si>
+  <si>
+    <t>signicant_strike_accuracy</t>
+  </si>
+  <si>
+    <t>takedowns_landed</t>
+  </si>
+  <si>
+    <t>takedowns_attempted</t>
+  </si>
+  <si>
+    <t>takedowns_accuracy</t>
+  </si>
+  <si>
     <t>Khabib Nurmagomedov</t>
   </si>
   <si>
+    <t>Jon Jones</t>
+  </si>
+  <si>
     <t>The Eagle</t>
   </si>
   <si>
+    <t>Bones</t>
+  </si>
+  <si>
     <t>29-0-0 (W-L-D)</t>
+  </si>
+  <si>
+    <t>26-1-0 (W-L-D)</t>
+  </si>
+  <si>
+    <t>Retired</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Dagestan Republic, Russia</t>
+  </si>
+  <si>
+    <t>Rochester, United States</t>
+  </si>
+  <si>
+    <t>AKA (American Kickboxing Academy) San Jose</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>155.00</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>Jan. 21, 2012</t>
+  </si>
+  <si>
+    <t>Aug. 09, 2008</t>
+  </si>
+  <si>
+    <t>84.50</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>2526</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>44%</t>
   </si>
 </sst>
 </file>
@@ -389,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,19 +543,165 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -58,7 +58,7 @@
     <t>significant_strikes_attempted</t>
   </si>
   <si>
-    <t>signicant_strike_accuracy</t>
+    <t>significant_strike_accuracy</t>
   </si>
   <si>
     <t>takedowns_landed</t>
@@ -67,27 +67,66 @@
     <t>takedowns_attempted</t>
   </si>
   <si>
-    <t>takedowns_accuracy</t>
+    <t>takedown_accuracy</t>
+  </si>
+  <si>
+    <t>fighting_style</t>
   </si>
   <si>
     <t>Khabib Nurmagomedov</t>
   </si>
   <si>
+    <t>Conor McGregor</t>
+  </si>
+  <si>
     <t>Jon Jones</t>
   </si>
   <si>
+    <t>Kamaru Usman</t>
+  </si>
+  <si>
+    <t>Georges St-Pierre</t>
+  </si>
+  <si>
+    <t>Anderson Silva</t>
+  </si>
+  <si>
     <t>The Eagle</t>
   </si>
   <si>
+    <t>The Notorious</t>
+  </si>
+  <si>
     <t>Bones</t>
   </si>
   <si>
+    <t>Nigerian Nightmare</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>The Spider</t>
+  </si>
+  <si>
     <t>29-0-0 (W-L-D)</t>
   </si>
   <si>
+    <t>22-6-0 (W-L-D)</t>
+  </si>
+  <si>
     <t>26-1-0 (W-L-D)</t>
   </si>
   <si>
+    <t>19-1-0 (W-L-D)</t>
+  </si>
+  <si>
+    <t>26-2-0 (W-L-D)</t>
+  </si>
+  <si>
+    <t>34-11-0 (W-L-D)</t>
+  </si>
+  <si>
     <t>Retired</t>
   </si>
   <si>
@@ -97,79 +136,220 @@
     <t>Dagestan Republic, Russia</t>
   </si>
   <si>
+    <t>Dublin, Ireland</t>
+  </si>
+  <si>
     <t>Rochester, United States</t>
   </si>
   <si>
+    <t>Auchi, Nigeria</t>
+  </si>
+  <si>
+    <t>Montreal, Canada</t>
+  </si>
+  <si>
+    <t>Curitiba, Brazil</t>
+  </si>
+  <si>
     <t>AKA (American Kickboxing Academy) San Jose</t>
   </si>
   <si>
+    <t>SBG Ireland</t>
+  </si>
+  <si>
+    <t>Blackzilians - Boca Raton, FL</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>70.00</t>
   </si>
   <si>
+    <t>69.00</t>
+  </si>
+  <si>
     <t>76.00</t>
   </si>
   <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
     <t>155.00</t>
   </si>
   <si>
+    <t>145.00</t>
+  </si>
+  <si>
     <t>205.00</t>
   </si>
   <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
     <t>Jan. 21, 2012</t>
   </si>
   <si>
+    <t>Apr. 06, 2013</t>
+  </si>
+  <si>
     <t>Aug. 09, 2008</t>
   </si>
   <si>
+    <t>Jul. 12, 2015</t>
+  </si>
+  <si>
+    <t>Jan. 31, 2004</t>
+  </si>
+  <si>
+    <t>Jun. 28, 2006</t>
+  </si>
+  <si>
     <t>84.50</t>
   </si>
   <si>
+    <t>77.00</t>
+  </si>
+  <si>
     <t>40.00</t>
   </si>
   <si>
     <t>45.00</t>
   </si>
   <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
     <t>705</t>
   </si>
   <si>
+    <t>599</t>
+  </si>
+  <si>
     <t>1463</t>
   </si>
   <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
     <t>1444</t>
   </si>
   <si>
+    <t>1204</t>
+  </si>
+  <si>
     <t>2526</t>
   </si>
   <si>
+    <t>1881</t>
+  </si>
+  <si>
+    <t>2470</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
     <t>49%</t>
   </si>
   <si>
+    <t>50%</t>
+  </si>
+  <si>
     <t>58%</t>
   </si>
   <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>127</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>95</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>48%</t>
   </si>
   <si>
+    <t>56%</t>
+  </si>
+  <si>
     <t>44%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>Freestyle</t>
+  </si>
+  <si>
+    <t>Karate</t>
   </si>
 </sst>
 </file>
@@ -527,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,120 +768,353 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" t="s">
+        <v>107</v>
+      </c>
+      <c r="T5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" t="s">
+        <v>108</v>
+      </c>
+      <c r="T6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" t="s">
-        <v>51</v>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
